--- a/excel/taxi_202309.xlsx
+++ b/excel/taxi_202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1480</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>390</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -962,24 +962,24 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>595</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>盧奕良</t>
+          <t>簡含書</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yi-Liang Lu</t>
+          <t>Vanessa Chien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0AA2</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1139,24 +1139,24 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>845</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>昌衣綸</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Irene Chang</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0AA2</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>605</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1316,24 +1316,24 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>1360</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>簡含書</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vanessa Chien</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0AA3</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1493,29 +1493,29 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>300</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0AA3</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>985</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>665</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>455</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>4535</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0AA3</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1727,12 +1727,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>605</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1445</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0AA35C</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>515</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>515</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2201,24 +2201,24 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>465</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>835</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>710</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>665</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2378,24 +2378,24 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>4125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>450</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2555,24 +2555,24 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>450</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>450</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2732,24 +2732,24 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>730</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2809,17 +2809,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>215</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2909,24 +2909,24 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>410</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3086,24 +3086,24 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>510</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3133,17 +3133,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3193,17 +3193,17 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3263,24 +3263,24 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>1460</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0AA375</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>715</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>880</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3617,24 +3617,24 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>430</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>475</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3794,24 +3794,24 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>885</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3971,24 +3971,24 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1030</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4148,24 +4148,24 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>195</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>余承翰</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Jenson Yu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0AA380</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4255,17 +4255,17 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>395</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4325,24 +4325,24 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>755</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4502,24 +4502,24 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>800</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4554,12 +4554,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4679,24 +4679,24 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1315</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4856,24 +4856,24 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>155</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5033,24 +5033,24 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>400</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>565</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5210,24 +5210,24 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>865</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>435</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5387,24 +5387,24 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>570</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>630</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>770</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>余承翰</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jenson Yu</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>225</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>718</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5741,24 +5741,24 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>賴韋任</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Leo Lai</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5918,24 +5918,24 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>160</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>717</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -6095,24 +6095,24 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>717</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>590</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6272,24 +6272,24 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>590</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>李侑萱</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Yolanda Lee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6419,12 +6419,12 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
@@ -6449,24 +6449,24 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>375</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -6626,24 +6626,24 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>黃婷鈺</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Louise Huang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -6803,24 +6803,24 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>605</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6980,24 +6980,24 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>310</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>鍾幸玲</t>
+          <t>楊筑珺</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shelly Chung</t>
+          <t>Chynee Yang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0AA7</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -7132,12 +7132,12 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7157,24 +7157,24 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>540</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>徐沛</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Fanny Hsu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7334,29 +7334,29 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0AA82</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -7511,29 +7511,29 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7653,12 +7653,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -7688,24 +7688,24 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>790</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -7865,24 +7865,24 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0AA96</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -8042,29 +8042,29 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>440</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8219,24 +8219,24 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>605</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>黃婷鈺</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Louise Huang</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8301,17 +8301,17 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>390</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>435</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -8396,24 +8396,24 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>825</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -8518,12 +8518,12 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -8573,34 +8573,29 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>230</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>楊筑珺</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chynee Yang</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0B</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>730</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>650</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -8615,27 +8610,27 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,840</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,347</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,510</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,050</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,350</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -8650,22 +8645,22 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,335</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,325</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,685</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,025</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -8680,27 +8675,27 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,010</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,465</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,665</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,105</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -8715,22 +8710,22 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,105</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,940</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>850</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,808</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8750,2126 +8745,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>540</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>徐沛</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Fanny Hsu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>黃婷鈺</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Louise Huang</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>陳璜琪</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Vincent Chen</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2AA8C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>謝昔祥</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Adonis Hsieh</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2AA8C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2AA8D</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>730</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1,840</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1,347</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>1,510</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2,050</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2,350</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>1,335</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>3,325</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2,685</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>1,010</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>2,465</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>3,665</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>3,105</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>1,765</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>2,275</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>1,808</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>36,380</t>
+          <t>37,550</t>
         </is>
       </c>
     </row>
